--- a/data/raw/response_traits/n-fixers.xlsx
+++ b/data/raw/response_traits/n-fixers.xlsx
@@ -1867,13 +1867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
@@ -1902,87 +1902,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1990,153 +1990,153 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2144,164 +2144,164 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>490</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>410</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>497</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>498</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>435</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>429</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>430</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>486</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
         <v>31</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
         <v>31</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>417</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="C74" t="s">
         <v>31</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
         <v>31</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
         <v>31</v>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>269</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>491</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s">
-        <v>492</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
         <v>31</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="C83" t="s">
         <v>31</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
         <v>31</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
         <v>31</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -2837,10 +2837,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>442</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s">
-        <v>443</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -2881,32 +2881,32 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="C94" t="s">
         <v>31</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>445</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>373</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="C96" t="s">
         <v>31</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s">
         <v>31</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B98" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="C98" t="s">
         <v>31</v>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
         <v>31</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="C100" t="s">
         <v>31</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
         <v>31</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
         <v>31</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>388</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>31</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
         <v>31</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
         <v>31</v>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>31</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
         <v>31</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>376</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>487</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
         <v>31</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
         <v>31</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="C114" t="s">
         <v>31</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="C116" t="s">
         <v>31</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>447</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>448</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="C120" t="s">
         <v>31</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B124" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
         <v>31</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>442</v>
       </c>
       <c r="B125" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="C125" t="s">
         <v>31</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>31</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
         <v>31</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="B134" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s">
         <v>31</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
         <v>31</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
         <v>31</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
         <v>31</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
         <v>31</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s">
         <v>31</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="C142" t="s">
         <v>31</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
       <c r="C143" t="s">
         <v>31</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="C144" t="s">
         <v>31</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
       <c r="B145" t="s">
-        <v>268</v>
+        <v>402</v>
       </c>
       <c r="C145" t="s">
         <v>31</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="B146" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
         <v>31</v>
@@ -3486,21 +3486,21 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>446</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="C148" t="s">
         <v>31</v>
@@ -3508,208 +3508,208 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>447</v>
       </c>
       <c r="B149" t="s">
-        <v>59</v>
+        <v>448</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="B152" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>212</v>
+        <v>403</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>348</v>
+        <v>71</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B163" t="s">
-        <v>395</v>
+        <v>69</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>423</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>488</v>
+        <v>302</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="B166" t="s">
-        <v>490</v>
+        <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s">
         <v>31</v>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C168" t="s">
         <v>31</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="C169" t="s">
         <v>31</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="C170" t="s">
         <v>31</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="C171" t="s">
         <v>31</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="B172" t="s">
         <v>23</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="C173" t="s">
         <v>31</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="C174" t="s">
         <v>31</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>451</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
         <v>31</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s">
         <v>31</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>505</v>
+        <v>164</v>
       </c>
       <c r="B177" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C177" t="s">
         <v>31</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="B178" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C179" t="s">
         <v>31</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="C180" t="s">
         <v>31</v>
@@ -3860,21 +3860,21 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>370</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="C182" t="s">
         <v>31</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
         <v>31</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>471</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>472</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s">
         <v>31</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="C185" t="s">
         <v>31</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s">
         <v>31</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="B187" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="C187" t="s">
         <v>31</v>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>479</v>
+        <v>276</v>
       </c>
       <c r="B188" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C188" t="s">
         <v>31</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B189" t="s">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="C189" t="s">
         <v>31</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>256</v>
+        <v>505</v>
       </c>
       <c r="B190" t="s">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="C190" t="s">
         <v>31</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C191" t="s">
         <v>31</v>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
         <v>31</v>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>453</v>
+        <v>140</v>
       </c>
       <c r="B193" t="s">
-        <v>454</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
         <v>31</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C195" t="s">
         <v>31</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="C196" t="s">
         <v>31</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
         <v>31</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="B198" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="C198" t="s">
         <v>31</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="B199" t="s">
-        <v>109</v>
+        <v>353</v>
       </c>
       <c r="C199" t="s">
         <v>31</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
-        <v>178</v>
+        <v>480</v>
       </c>
       <c r="C200" t="s">
         <v>31</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="B201" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C201" t="s">
         <v>31</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="B202" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C202" t="s">
         <v>31</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="B203" t="s">
-        <v>424</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
         <v>31</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="B204" t="s">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="C204" t="s">
         <v>31</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="B205" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C205" t="s">
         <v>31</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="B206" t="s">
-        <v>456</v>
+        <v>244</v>
       </c>
       <c r="C206" t="s">
         <v>31</v>
@@ -4149,7 +4149,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s">
-        <v>481</v>
+        <v>30</v>
       </c>
       <c r="C207" t="s">
         <v>31</v>
@@ -4160,7 +4160,7 @@
         <v>29</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="C208" t="s">
         <v>31</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C209" t="s">
         <v>31</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="B210" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>457</v>
+        <v>29</v>
       </c>
       <c r="B211" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="C211" t="s">
         <v>31</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="B212" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="C212" t="s">
         <v>31</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="C213" t="s">
         <v>31</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="C214" t="s">
         <v>31</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
         <v>31</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
         <v>31</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="C217" t="s">
         <v>31</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>456</v>
       </c>
       <c r="C218" t="s">
         <v>31</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="C219" t="s">
         <v>31</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C220" t="s">
         <v>31</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B221" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C221" t="s">
         <v>31</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>149</v>
       </c>
       <c r="C222" t="s">
         <v>31</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C223" t="s">
         <v>31</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="C224" t="s">
         <v>31</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="C225" t="s">
         <v>31</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C226" t="s">
         <v>31</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B227" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="C227" t="s">
         <v>31</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B228" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="C228" t="s">
         <v>31</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B229" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="C229" t="s">
         <v>31</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="C230" t="s">
         <v>31</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B231" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="C231" t="s">
         <v>31</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B232" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C232" t="s">
         <v>31</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="C233" t="s">
         <v>31</v>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="C234" t="s">
         <v>31</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B235" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="C235" t="s">
         <v>31</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="B236" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
       <c r="C236" t="s">
         <v>31</v>
@@ -4479,7 +4479,7 @@
         <v>97</v>
       </c>
       <c r="B237" t="s">
-        <v>494</v>
+        <v>98</v>
       </c>
       <c r="C237" t="s">
         <v>31</v>
@@ -4487,32 +4487,32 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B238" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="C240" t="s">
         <v>31</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="B241" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C241" t="s">
         <v>31</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="B242" t="s">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="C242" t="s">
         <v>31</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="B243" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="C243" t="s">
         <v>31</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>378</v>
+        <v>97</v>
       </c>
       <c r="B244" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C244" t="s">
         <v>31</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="B245" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C245" t="s">
         <v>31</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B246" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
         <v>31</v>
@@ -4586,21 +4586,21 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>425</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="C248" t="s">
         <v>31</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="B249" t="s">
-        <v>285</v>
+        <v>494</v>
       </c>
       <c r="C249" t="s">
         <v>31</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B250" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C250" t="s">
         <v>31</v>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B251" t="s">
-        <v>367</v>
+        <v>142</v>
       </c>
       <c r="C251" t="s">
         <v>31</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>221</v>
+        <v>473</v>
       </c>
       <c r="B252" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C252" t="s">
         <v>31</v>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="B253" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="C253" t="s">
         <v>31</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C254" t="s">
         <v>31</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="B255" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="C255" t="s">
         <v>31</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="B256" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="C256" t="s">
         <v>31</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="B257" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C257" t="s">
         <v>31</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="C258" t="s">
         <v>31</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B259" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C259" t="s">
         <v>31</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B260" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="C260" t="s">
         <v>31</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="B261" t="s">
-        <v>54</v>
+        <v>461</v>
       </c>
       <c r="C261" t="s">
         <v>31</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="B262" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="C262" t="s">
         <v>31</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="B263" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C263" t="s">
         <v>31</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="C264" t="s">
         <v>31</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="B265" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C265" t="s">
         <v>31</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B266" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
         <v>31</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B267" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
       <c r="C267" t="s">
         <v>31</v>
@@ -4817,10 +4817,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="B268" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="C268" t="s">
         <v>31</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="C269" t="s">
         <v>31</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B270" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="C270" t="s">
         <v>31</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="B271" t="s">
-        <v>476</v>
+        <v>155</v>
       </c>
       <c r="C271" t="s">
         <v>31</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B272" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C272" t="s">
         <v>31</v>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B273" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="C273" t="s">
         <v>31</v>
@@ -4883,10 +4883,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B274" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C274" t="s">
         <v>31</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B275" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="C275" t="s">
         <v>31</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B276" t="s">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="C276" t="s">
         <v>31</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B277" t="s">
-        <v>420</v>
+        <v>289</v>
       </c>
       <c r="C277" t="s">
         <v>31</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B278" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="C278" t="s">
         <v>31</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="C279" t="s">
         <v>31</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>107</v>
+        <v>475</v>
       </c>
       <c r="B280" t="s">
-        <v>52</v>
+        <v>476</v>
       </c>
       <c r="C280" t="s">
         <v>31</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B281" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="C281" t="s">
         <v>31</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B282" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="C282" t="s">
         <v>31</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="C283" t="s">
         <v>31</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B284" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C284" t="s">
         <v>31</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B285" t="s">
-        <v>340</v>
+        <v>116</v>
       </c>
       <c r="C285" t="s">
         <v>31</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B286" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C286" t="s">
         <v>31</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B287" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="C287" t="s">
         <v>31</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="B288" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C288" t="s">
         <v>31</v>
@@ -5048,21 +5048,21 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B289" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="B290" t="s">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="C290" t="s">
         <v>31</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B291" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C291" t="s">
         <v>31</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B292" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="C292" t="s">
         <v>31</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B293" t="s">
-        <v>483</v>
+        <v>132</v>
       </c>
       <c r="C293" t="s">
         <v>31</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="B294" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="C294" t="s">
         <v>31</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="B295" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="C295" t="s">
         <v>31</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B296" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="C296" t="s">
         <v>31</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B297" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C297" t="s">
         <v>31</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B298" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C298" t="s">
         <v>31</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C299" t="s">
         <v>31</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="B300" t="s">
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="C300" t="s">
         <v>31</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="C301" t="s">
         <v>31</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="B302" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="C302" t="s">
         <v>31</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="B303" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="C303" t="s">
         <v>31</v>
@@ -5213,21 +5213,21 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="B304" t="s">
-        <v>353</v>
+        <v>129</v>
       </c>
       <c r="C304" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="B305" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="C305" t="s">
         <v>31</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="B306" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="C306" t="s">
         <v>31</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>427</v>
+        <v>184</v>
       </c>
       <c r="B307" t="s">
-        <v>428</v>
+        <v>185</v>
       </c>
       <c r="C307" t="s">
         <v>31</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="B308" t="s">
-        <v>170</v>
+        <v>393</v>
       </c>
       <c r="C308" t="s">
         <v>31</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B309" t="s">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="C309" t="s">
         <v>31</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="B310" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="C310" t="s">
         <v>31</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="B311" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="C311" t="s">
         <v>31</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="B312" t="s">
-        <v>501</v>
+        <v>265</v>
       </c>
       <c r="C312" t="s">
         <v>31</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="B313" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="C313" t="s">
         <v>31</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="B314" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="C314" t="s">
         <v>31</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="B315" t="s">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="C315" t="s">
         <v>31</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="B316" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C316" t="s">
         <v>31</v>
@@ -5356,10 +5356,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="B317" t="s">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="C317" t="s">
         <v>31</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>368</v>
+        <v>33</v>
       </c>
       <c r="B318" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="C318" t="s">
         <v>31</v>
@@ -5378,54 +5378,54 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>501</v>
       </c>
       <c r="C319" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="B320" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="C320" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>166</v>
+        <v>464</v>
       </c>
       <c r="B321" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="C321" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>166</v>
+        <v>465</v>
       </c>
       <c r="B322" t="s">
-        <v>149</v>
+        <v>466</v>
       </c>
       <c r="C322" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="B323" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="C323" t="s">
         <v>31</v>
@@ -5433,10 +5433,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B324" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="C324" t="s">
         <v>31</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="B325" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="C325" t="s">
         <v>31</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="B326" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C326" t="s">
         <v>31</v>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B327" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="C327" t="s">
         <v>31</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="B328" t="s">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="C328" t="s">
         <v>31</v>
@@ -5488,21 +5488,21 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="B329" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
       <c r="C329" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="B330" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="C330" t="s">
         <v>31</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="B331" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="C331" t="s">
         <v>31</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="B332" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="C332" t="s">
         <v>31</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B333" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C333" t="s">
         <v>31</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B334" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C334" t="s">
         <v>31</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>467</v>
+        <v>245</v>
       </c>
       <c r="B335" t="s">
-        <v>468</v>
+        <v>246</v>
       </c>
       <c r="C335" t="s">
         <v>31</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="B336" t="s">
-        <v>477</v>
+        <v>23</v>
       </c>
       <c r="C336" t="s">
         <v>31</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B337" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C337" t="s">
         <v>31</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B338" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C338" t="s">
         <v>31</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="B339" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="C339" t="s">
         <v>31</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>484</v>
       </c>
       <c r="C340" t="s">
         <v>31</v>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="B341" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C341" t="s">
         <v>31</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="C342" t="s">
         <v>31</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="C343" t="s">
         <v>31</v>
@@ -5656,7 +5656,7 @@
         <v>208</v>
       </c>
       <c r="B344" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="C344" t="s">
         <v>31</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="B345" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C345" t="s">
         <v>31</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="B346" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
       <c r="C346" t="s">
         <v>31</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="B347" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="C347" t="s">
         <v>31</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="B348" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="C348" t="s">
         <v>31</v>
@@ -5711,7 +5711,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="C349" t="s">
         <v>31</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B350" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C350" t="s">
         <v>31</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B351" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="C351" t="s">
         <v>31</v>
@@ -5744,7 +5744,7 @@
         <v>133</v>
       </c>
       <c r="B352" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C352" t="s">
         <v>31</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B353" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C353" t="s">
         <v>31</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B354" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C354" t="s">
         <v>31</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="B355" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C355" t="s">
         <v>31</v>
@@ -5788,7 +5788,7 @@
         <v>40</v>
       </c>
       <c r="B356" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="C356" t="s">
         <v>31</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="B357" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="C357" t="s">
         <v>31</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B358" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
       <c r="C358" t="s">
         <v>31</v>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B359" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C359" t="s">
         <v>31</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B360" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C360" t="s">
         <v>31</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B361" t="s">
-        <v>394</v>
+        <v>63</v>
       </c>
       <c r="C361" t="s">
         <v>31</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="B362" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C362" t="s">
         <v>31</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B363" t="s">
-        <v>116</v>
+        <v>394</v>
       </c>
       <c r="C363" t="s">
         <v>31</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="B364" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="C364" t="s">
         <v>31</v>
@@ -5887,7 +5887,7 @@
         <v>119</v>
       </c>
       <c r="B365" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="C365" t="s">
         <v>31</v>
@@ -5895,29 +5895,29 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="B366" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="C366" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="B367" t="s">
-        <v>497</v>
+        <v>268</v>
       </c>
       <c r="C367" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K367">
-    <sortCondition ref="A2:A367"/>
+  <sortState ref="A2:C367">
+    <sortCondition ref="C2:C367"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
